--- a/data/trans_orig/P55S_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P55S_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B309585D-5C83-497D-9A74-ADB0C278679F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD8F6386-AA49-4030-9B60-BF3CD4E93258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2B02B877-4772-4B21-8E56-9A1B96D77129}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{773040AC-96C4-4F42-9B8D-65030230B559}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="999">
   <si>
     <t>Población según el tipo de ayuda que tiene con sus dificultades en las actividades instrumentales de la vida diaria en 2007 (Tasa respuesta: 5,34%)</t>
   </si>
@@ -812,7 +812,88 @@
     <t>Población según el tipo de ayuda que tiene con sus dificultades en las actividades instrumentales de la vida diaria en 2012 (Tasa respuesta: 5,92%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
   </si>
   <si>
     <t>28,94%</t>
@@ -911,9 +992,6 @@
     <t>16,46%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
     <t>37,09%</t>
   </si>
   <si>
@@ -980,897 +1058,870 @@
     <t>13,49%</t>
   </si>
   <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de ayuda que tiene con sus dificultades en las actividades instrumentales de la vida diaria en 2016 (Tasa respuesta: 5,34%)</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
   </si>
   <si>
     <t>13,17%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de ayuda que tiene con sus dificultades en las actividades instrumentales de la vida diaria en 2016 (Tasa respuesta: 5,34%)</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
     <t>30,25%</t>
   </si>
   <si>
@@ -2009,9 +2060,6 @@
     <t>6,63%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
     <t>13,41%</t>
   </si>
   <si>
@@ -2162,9 +2210,6 @@
     <t>1,53%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
     <t>8,29%</t>
   </si>
   <si>
@@ -2183,817 +2228,814 @@
     <t>Población según el tipo de ayuda que tiene con sus dificultades en las actividades instrumentales de la vida diaria en 2023 (Tasa respuesta: 10,61%)</t>
   </si>
   <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
   </si>
 </sst>
 </file>
@@ -3405,7 +3447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0C679C-0C3F-42CB-B267-FCE5DA516030}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03A0BF8-59CB-47DB-9DEC-101AC01BA859}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5854,7 +5896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781F0D19-53F1-4DB1-B2B9-308F5CD7F557}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D8CFA6-77FD-4B04-8207-2D88C8BD65AA}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5972,43 +6014,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1801</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>257</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1043</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2844</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,43 +6065,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>953</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7562</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N5" s="7">
+        <v>8515</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,43 +6116,49 @@
         <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8032</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>257</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="7">
+        <v>18852</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="N6" s="7">
+        <v>26884</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,43 +6167,49 @@
         <v>30</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>994</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>980</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1974</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,43 +6218,49 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>11779</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="I8" s="7">
+        <v>28437</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="N8" s="7">
+        <v>40216</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,7 +6283,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -6220,13 +6292,13 @@
         <v>7387</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -6235,13 +6307,13 @@
         <v>9529</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6328,13 @@
         <v>2078</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -6271,13 +6343,13 @@
         <v>7746</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -6286,13 +6358,13 @@
         <v>9824</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6379,13 @@
         <v>15982</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -6322,10 +6394,10 @@
         <v>27201</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>143</v>
@@ -6337,13 +6409,13 @@
         <v>43183</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6358,13 +6430,13 @@
         <v>3316</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6379,7 +6451,7 @@
         <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6388,13 +6460,13 @@
         <v>3316</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6534,13 @@
         <v>3112</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -6477,13 +6549,13 @@
         <v>4360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -6492,13 +6564,13 @@
         <v>7472</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,13 +6585,13 @@
         <v>998</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -6528,13 +6600,13 @@
         <v>9571</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="M15" s="7">
         <v>10</v>
@@ -6543,13 +6615,13 @@
         <v>10569</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,13 +6636,13 @@
         <v>10289</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -6579,13 +6651,13 @@
         <v>12561</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -6594,13 +6666,13 @@
         <v>22850</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,7 +6693,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6651,7 +6723,7 @@
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6713,49 +6785,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2203</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H19" s="7">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
-        <v>4004</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
       <c r="I19" s="7">
-        <v>5109</v>
+        <v>4066</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M19" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>9113</v>
+        <v>6269</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6764,49 +6836,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>953</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>21</v>
       </c>
       <c r="H20" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>12044</v>
+        <v>4482</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="M20" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>12997</v>
+        <v>4482</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6815,49 +6887,49 @@
         <v>22</v>
       </c>
       <c r="C21" s="7">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D21" s="7">
-        <v>25092</v>
+        <v>17060</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>332</v>
+        <v>25</v>
       </c>
       <c r="H21" s="7">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I21" s="7">
-        <v>48754</v>
+        <v>29902</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="M21" s="7">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="N21" s="7">
-        <v>73845</v>
+        <v>46961</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6866,49 +6938,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="7">
-        <v>994</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H22" s="7">
-        <v>2</v>
-      </c>
       <c r="I22" s="7">
-        <v>1997</v>
+        <v>1017</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>2991</v>
+        <v>1017</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>344</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>184</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6917,10 +6989,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D23" s="7">
-        <v>31042</v>
+        <v>19263</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>31</v>
@@ -6932,10 +7004,10 @@
         <v>31</v>
       </c>
       <c r="H23" s="7">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="I23" s="7">
-        <v>67904</v>
+        <v>39467</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>31</v>
@@ -6947,10 +7019,10 @@
         <v>31</v>
       </c>
       <c r="M23" s="7">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="N23" s="7">
-        <v>98946</v>
+        <v>58730</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>31</v>
@@ -6982,7 +7054,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -6991,13 +7063,13 @@
         <v>4180</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -7006,13 +7078,13 @@
         <v>4180</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7027,13 +7099,13 @@
         <v>3414</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -7042,13 +7114,13 @@
         <v>5192</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -7057,13 +7129,13 @@
         <v>8605</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7078,13 +7150,13 @@
         <v>5561</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -7093,13 +7165,13 @@
         <v>15889</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -7108,13 +7180,13 @@
         <v>21451</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,7 +7207,7 @@
         <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -7165,7 +7237,7 @@
         <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,13 +7305,13 @@
         <v>2162</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -7248,13 +7320,13 @@
         <v>3243</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -7263,10 +7335,10 @@
         <v>5405</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>64</v>
@@ -7284,13 +7356,13 @@
         <v>4276</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -7299,10 +7371,10 @@
         <v>6333</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>209</v>
@@ -7314,13 +7386,13 @@
         <v>10609</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7335,13 +7407,13 @@
         <v>11644</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
@@ -7350,13 +7422,13 @@
         <v>11707</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>120</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="M31" s="7">
         <v>22</v>
@@ -7365,13 +7437,13 @@
         <v>23350</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7392,7 +7464,7 @@
         <v>19</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7422,7 +7494,7 @@
         <v>19</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7490,13 +7562,13 @@
         <v>5522</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
@@ -7505,13 +7577,13 @@
         <v>12137</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -7520,13 +7592,13 @@
         <v>17659</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7541,13 +7613,13 @@
         <v>1125</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="H35" s="7">
         <v>6</v>
@@ -7556,13 +7628,13 @@
         <v>6370</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>313</v>
+        <v>425</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="M35" s="7">
         <v>7</v>
@@ -7571,13 +7643,13 @@
         <v>7495</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>219</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7592,13 +7664,13 @@
         <v>21697</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -7607,13 +7679,13 @@
         <v>29915</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="M36" s="7">
         <v>46</v>
@@ -7622,13 +7694,13 @@
         <v>51611</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,13 +7715,13 @@
         <v>982</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -7658,13 +7730,13 @@
         <v>945</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -7673,13 +7745,13 @@
         <v>1927</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7747,13 +7819,13 @@
         <v>2098</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="H39" s="7">
         <v>6</v>
@@ -7762,13 +7834,13 @@
         <v>6565</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="M39" s="7">
         <v>8</v>
@@ -7777,13 +7849,13 @@
         <v>8664</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7804,7 +7876,7 @@
         <v>19</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="H40" s="7">
         <v>5</v>
@@ -7813,13 +7885,13 @@
         <v>5538</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="M40" s="7">
         <v>5</v>
@@ -7828,13 +7900,13 @@
         <v>5538</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7849,13 +7921,13 @@
         <v>17727</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="H41" s="7">
         <v>28</v>
@@ -7864,13 +7936,13 @@
         <v>31367</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="M41" s="7">
         <v>42</v>
@@ -7879,13 +7951,13 @@
         <v>49095</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7900,13 +7972,13 @@
         <v>1000</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -7915,13 +7987,13 @@
         <v>3420</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="M42" s="7">
         <v>4</v>
@@ -7930,13 +8002,13 @@
         <v>4419</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8004,13 +8076,13 @@
         <v>19041</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="H44" s="7">
         <v>37</v>
@@ -8019,13 +8091,13 @@
         <v>42981</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="M44" s="7">
         <v>55</v>
@@ -8034,13 +8106,13 @@
         <v>62022</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8055,10 +8127,10 @@
         <v>12843</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>179</v>
@@ -8070,13 +8142,13 @@
         <v>52794</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="M45" s="7">
         <v>61</v>
@@ -8085,13 +8157,13 @@
         <v>65638</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>167</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8106,13 +8178,13 @@
         <v>107992</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="H46" s="7">
         <v>164</v>
@@ -8121,13 +8193,13 @@
         <v>177393</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="M46" s="7">
         <v>258</v>
@@ -8136,13 +8208,13 @@
         <v>285385</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,10 +8229,10 @@
         <v>6292</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>16</v>
@@ -8172,13 +8244,13 @@
         <v>6361</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="M47" s="7">
         <v>11</v>
@@ -8187,13 +8259,13 @@
         <v>12653</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>485</v>
+        <v>348</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8273,7 +8345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA50041-EFF3-4BF7-B199-9A6E9D56A92C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19CAA2B-A4C8-4454-B00D-A9A4CB05D3A1}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8290,7 +8362,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8412,13 +8484,13 @@
         <v>2337</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>489</v>
+        <v>363</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -8427,13 +8499,13 @@
         <v>2337</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8448,13 +8520,13 @@
         <v>3990</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -8463,13 +8535,13 @@
         <v>5897</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -8478,13 +8550,13 @@
         <v>9887</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8499,13 +8571,13 @@
         <v>4215</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -8514,10 +8586,10 @@
         <v>15625</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>77</v>
@@ -8529,13 +8601,13 @@
         <v>19840</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8550,13 +8622,13 @@
         <v>794</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -8565,13 +8637,13 @@
         <v>905</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -8580,13 +8652,13 @@
         <v>1699</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8654,13 +8726,13 @@
         <v>3509</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -8669,13 +8741,13 @@
         <v>5966</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -8684,13 +8756,13 @@
         <v>9474</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8726,7 +8798,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -8735,13 +8807,13 @@
         <v>2683</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8756,13 +8828,13 @@
         <v>9225</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -8771,13 +8843,13 @@
         <v>27695</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -8786,13 +8858,13 @@
         <v>36921</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8828,7 +8900,7 @@
         <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8843,7 +8915,7 @@
         <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8914,10 +8986,10 @@
         <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -8926,13 +8998,13 @@
         <v>2467</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -8941,13 +9013,13 @@
         <v>6103</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8998,7 +9070,7 @@
         <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9013,13 +9085,13 @@
         <v>11099</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -9028,13 +9100,13 @@
         <v>13706</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -9043,13 +9115,13 @@
         <v>24805</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>550</v>
+        <v>356</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9079,13 +9151,13 @@
         <v>1156</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -9094,13 +9166,13 @@
         <v>1156</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9168,13 +9240,13 @@
         <v>2684</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -9183,13 +9255,13 @@
         <v>6188</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -9198,13 +9270,13 @@
         <v>8873</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9219,13 +9291,13 @@
         <v>1804</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -9234,13 +9306,13 @@
         <v>2508</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9249,13 +9321,13 @@
         <v>4312</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9270,13 +9342,13 @@
         <v>9470</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -9285,13 +9357,13 @@
         <v>18634</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -9300,13 +9372,13 @@
         <v>28104</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9327,7 +9399,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -9336,13 +9408,13 @@
         <v>2050</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -9351,13 +9423,13 @@
         <v>2050</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9431,7 +9503,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -9440,13 +9512,13 @@
         <v>3475</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -9455,13 +9527,13 @@
         <v>3475</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9482,7 +9554,7 @@
         <v>19</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -9491,13 +9563,13 @@
         <v>2295</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -9506,7 +9578,7 @@
         <v>2295</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
@@ -9530,7 +9602,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>31</v>
@@ -9542,13 +9614,13 @@
         <v>14307</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -9557,13 +9629,13 @@
         <v>19239</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9584,7 +9656,7 @@
         <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -9593,13 +9665,13 @@
         <v>4083</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -9608,13 +9680,13 @@
         <v>4083</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>605</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9682,13 +9754,13 @@
         <v>1651</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -9697,13 +9769,13 @@
         <v>3396</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -9712,13 +9784,13 @@
         <v>5047</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>340</v>
+        <v>626</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9748,13 +9820,13 @@
         <v>1259</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -9763,13 +9835,13 @@
         <v>1259</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9784,10 +9856,10 @@
         <v>13284</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>25</v>
@@ -9799,13 +9871,13 @@
         <v>13943</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="M31" s="7">
         <v>27</v>
@@ -9814,13 +9886,13 @@
         <v>27227</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>620</v>
+        <v>637</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9850,13 +9922,13 @@
         <v>4791</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>182</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -9865,10 +9937,10 @@
         <v>4791</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>162</v>
@@ -9939,13 +10011,13 @@
         <v>4490</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>629</v>
+        <v>646</v>
       </c>
       <c r="H34" s="7">
         <v>8</v>
@@ -9954,13 +10026,13 @@
         <v>9319</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>630</v>
+        <v>647</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="M34" s="7">
         <v>13</v>
@@ -9969,13 +10041,13 @@
         <v>13809</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9996,7 +10068,7 @@
         <v>19</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -10005,13 +10077,13 @@
         <v>5379</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="M35" s="7">
         <v>4</v>
@@ -10020,13 +10092,13 @@
         <v>5379</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>638</v>
+        <v>655</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>639</v>
+        <v>656</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>640</v>
+        <v>657</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10041,13 +10113,13 @@
         <v>20881</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="H36" s="7">
         <v>32</v>
@@ -10056,13 +10128,13 @@
         <v>37203</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="M36" s="7">
         <v>53</v>
@@ -10071,13 +10143,13 @@
         <v>58084</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>647</v>
+        <v>664</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10092,13 +10164,13 @@
         <v>1059</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -10107,13 +10179,13 @@
         <v>4424</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="M37" s="7">
         <v>5</v>
@@ -10122,13 +10194,13 @@
         <v>5483</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>656</v>
+        <v>342</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10196,13 +10268,13 @@
         <v>1650</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="H39" s="7">
         <v>7</v>
@@ -10211,13 +10283,13 @@
         <v>9324</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="M39" s="7">
         <v>9</v>
@@ -10226,13 +10298,13 @@
         <v>10974</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10247,13 +10319,13 @@
         <v>809</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -10262,13 +10334,13 @@
         <v>1342</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -10277,13 +10349,13 @@
         <v>2151</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10298,13 +10370,13 @@
         <v>22277</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="H41" s="7">
         <v>30</v>
@@ -10313,13 +10385,13 @@
         <v>40256</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="M41" s="7">
         <v>53</v>
@@ -10328,13 +10400,13 @@
         <v>62532</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10364,13 +10436,13 @@
         <v>4751</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="M42" s="7">
         <v>4</v>
@@ -10379,13 +10451,13 @@
         <v>4751</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10453,13 +10525,13 @@
         <v>17621</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="H44" s="7">
         <v>34</v>
@@ -10468,13 +10540,13 @@
         <v>42470</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
       <c r="M44" s="7">
         <v>54</v>
@@ -10483,13 +10555,13 @@
         <v>60091</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10504,13 +10576,13 @@
         <v>6603</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
       <c r="H45" s="7">
         <v>17</v>
@@ -10519,10 +10591,10 @@
         <v>21364</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>204</v>
@@ -10534,13 +10606,13 @@
         <v>27967</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>232</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10555,13 +10627,13 @@
         <v>95381</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="H46" s="7">
         <v>145</v>
@@ -10570,10 +10642,10 @@
         <v>181370</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>99</v>
@@ -10585,13 +10657,13 @@
         <v>276751</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10606,13 +10678,13 @@
         <v>1853</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>707</v>
+        <v>283</v>
       </c>
       <c r="H47" s="7">
         <v>19</v>
@@ -10621,13 +10693,13 @@
         <v>22159</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="M47" s="7">
         <v>21</v>
@@ -10636,13 +10708,13 @@
         <v>24011</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10722,7 +10794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1FA2F1-7604-4838-B634-C338E5E8BBDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2056F4-EB3B-4B4A-8199-9ABE2A9BC0B5}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10739,7 +10811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10843,46 +10915,46 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>2050</v>
+        <v>2187</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>714</v>
+        <v>263</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>716</v>
+        <v>730</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>2639</v>
+        <v>2676</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>656</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>4689</v>
+        <v>4863</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10894,46 +10966,46 @@
         <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>3426</v>
+        <v>3647</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>720</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>10559</v>
+        <v>10679</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>294</v>
+        <v>737</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
       </c>
       <c r="N5" s="7">
-        <v>13985</v>
+        <v>14326</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10945,46 +11017,46 @@
         <v>31</v>
       </c>
       <c r="D6" s="7">
-        <v>19092</v>
+        <v>20468</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="H6" s="7">
         <v>41</v>
       </c>
       <c r="I6" s="7">
-        <v>19282</v>
+        <v>19541</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="M6" s="7">
         <v>72</v>
       </c>
       <c r="N6" s="7">
-        <v>38373</v>
+        <v>40009</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10996,16 +11068,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>666</v>
+        <v>732</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>737</v>
+        <v>752</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -11020,22 +11092,22 @@
         <v>19</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>739</v>
+        <v>753</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>666</v>
+        <v>732</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>740</v>
+        <v>754</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>741</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -11047,7 +11119,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="7">
-        <v>25234</v>
+        <v>27034</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>31</v>
@@ -11062,7 +11134,7 @@
         <v>66</v>
       </c>
       <c r="I8" s="7">
-        <v>32480</v>
+        <v>32896</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>31</v>
@@ -11077,7 +11149,7 @@
         <v>106</v>
       </c>
       <c r="N8" s="7">
-        <v>57713</v>
+        <v>59930</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
@@ -11100,46 +11172,46 @@
         <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>3710</v>
+        <v>3421</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>523</v>
+        <v>755</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>743</v>
+        <v>757</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
       </c>
       <c r="I9" s="7">
-        <v>7635</v>
+        <v>6943</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>744</v>
+        <v>758</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>745</v>
+        <v>759</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>746</v>
+        <v>760</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
       </c>
       <c r="N9" s="7">
-        <v>11345</v>
+        <v>10364</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>747</v>
+        <v>761</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>749</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -11151,46 +11223,46 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>2637</v>
+        <v>2488</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>764</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>751</v>
+        <v>765</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>9408</v>
+        <v>8483</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>752</v>
+        <v>489</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>12045</v>
+        <v>10971</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>591</v>
+        <v>769</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>756</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -11202,46 +11274,46 @@
         <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>10223</v>
+        <v>9475</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="H11" s="7">
         <v>65</v>
       </c>
       <c r="I11" s="7">
-        <v>42599</v>
+        <v>38393</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="M11" s="7">
         <v>76</v>
       </c>
       <c r="N11" s="7">
-        <v>52821</v>
+        <v>47868</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -11268,31 +11340,31 @@
         <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>1304</v>
+        <v>1184</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>767</v>
+        <v>444</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>1304</v>
+        <v>1184</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -11304,7 +11376,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>16570</v>
+        <v>15384</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>31</v>
@@ -11319,7 +11391,7 @@
         <v>94</v>
       </c>
       <c r="I13" s="7">
-        <v>60945</v>
+        <v>55003</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>31</v>
@@ -11334,7 +11406,7 @@
         <v>112</v>
       </c>
       <c r="N13" s="7">
-        <v>77515</v>
+        <v>70387</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>31</v>
@@ -11357,46 +11429,46 @@
         <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>2737</v>
+        <v>2526</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>664</v>
+        <v>783</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
       </c>
       <c r="I14" s="7">
-        <v>5881</v>
+        <v>5362</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>14</v>
+        <v>785</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>772</v>
+        <v>786</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
       </c>
       <c r="N14" s="7">
-        <v>8618</v>
+        <v>7887</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>774</v>
+        <v>788</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>776</v>
+        <v>790</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11408,46 +11480,46 @@
         <v>11</v>
       </c>
       <c r="D15" s="7">
-        <v>7208</v>
+        <v>6695</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
       <c r="H15" s="7">
         <v>23</v>
       </c>
       <c r="I15" s="7">
-        <v>12954</v>
+        <v>11744</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>717</v>
+        <v>795</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="M15" s="7">
         <v>34</v>
       </c>
       <c r="N15" s="7">
-        <v>20162</v>
+        <v>18439</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -11459,46 +11531,46 @@
         <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>14402</v>
+        <v>13614</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>787</v>
+        <v>802</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
       </c>
       <c r="I16" s="7">
-        <v>26377</v>
+        <v>24083</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>788</v>
+        <v>803</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
       </c>
       <c r="N16" s="7">
-        <v>40779</v>
+        <v>37698</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>792</v>
+        <v>807</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11510,46 +11582,46 @@
         <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>3001</v>
+        <v>2846</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>795</v>
+        <v>810</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>3705</v>
+        <v>3345</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>797</v>
+        <v>559</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>341</v>
+        <v>812</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>690</v>
+        <v>813</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
       </c>
       <c r="N17" s="7">
-        <v>6706</v>
+        <v>6191</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>799</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11561,7 +11633,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="7">
-        <v>27348</v>
+        <v>25681</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>31</v>
@@ -11576,7 +11648,7 @@
         <v>88</v>
       </c>
       <c r="I18" s="7">
-        <v>48917</v>
+        <v>44534</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>31</v>
@@ -11591,7 +11663,7 @@
         <v>131</v>
       </c>
       <c r="N18" s="7">
-        <v>76265</v>
+        <v>70215</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>31</v>
@@ -11614,46 +11686,46 @@
         <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>3250</v>
+        <v>3074</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>801</v>
+        <v>816</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
       </c>
       <c r="I19" s="7">
-        <v>6893</v>
+        <v>6460</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>802</v>
+        <v>817</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>84</v>
+        <v>819</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
       </c>
       <c r="N19" s="7">
-        <v>10143</v>
+        <v>9534</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -11665,46 +11737,46 @@
         <v>9</v>
       </c>
       <c r="D20" s="7">
-        <v>6483</v>
+        <v>6087</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
       </c>
       <c r="I20" s="7">
-        <v>10647</v>
+        <v>9982</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>810</v>
+        <v>826</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>811</v>
+        <v>827</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="M20" s="7">
         <v>34</v>
       </c>
       <c r="N20" s="7">
-        <v>17130</v>
+        <v>16069</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>813</v>
+        <v>829</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>814</v>
+        <v>830</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>375</v>
+        <v>831</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11716,46 +11788,46 @@
         <v>13</v>
       </c>
       <c r="D21" s="7">
-        <v>7809</v>
+        <v>7385</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>815</v>
+        <v>832</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>816</v>
+        <v>833</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>817</v>
+        <v>834</v>
       </c>
       <c r="H21" s="7">
         <v>46</v>
       </c>
       <c r="I21" s="7">
-        <v>20493</v>
+        <v>19073</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>818</v>
+        <v>835</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>819</v>
+        <v>836</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="M21" s="7">
         <v>59</v>
       </c>
       <c r="N21" s="7">
-        <v>28302</v>
+        <v>26457</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>821</v>
+        <v>838</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>822</v>
+        <v>839</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -11776,37 +11848,37 @@
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>824</v>
+        <v>841</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>825</v>
+        <v>842</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>826</v>
+        <v>843</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>827</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11818,7 +11890,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="7">
-        <v>17542</v>
+        <v>16546</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>31</v>
@@ -11833,7 +11905,7 @@
         <v>88</v>
       </c>
       <c r="I23" s="7">
-        <v>38464</v>
+        <v>35920</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>31</v>
@@ -11848,7 +11920,7 @@
         <v>115</v>
       </c>
       <c r="N23" s="7">
-        <v>56006</v>
+        <v>52465</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>31</v>
@@ -11871,46 +11943,46 @@
         <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>1232</v>
+        <v>1081</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>828</v>
+        <v>844</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>829</v>
+        <v>845</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>1795</v>
+        <v>1580</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>831</v>
+        <v>643</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>832</v>
+        <v>847</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
       </c>
       <c r="N24" s="7">
-        <v>3026</v>
+        <v>2661</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>833</v>
+        <v>848</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>834</v>
+        <v>849</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>835</v>
+        <v>850</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11922,46 +11994,46 @@
         <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>3305</v>
+        <v>2980</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>836</v>
+        <v>851</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>838</v>
+        <v>853</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
       </c>
       <c r="I25" s="7">
-        <v>6086</v>
+        <v>5450</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>840</v>
+        <v>855</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>841</v>
+        <v>856</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
       </c>
       <c r="N25" s="7">
-        <v>9391</v>
+        <v>8431</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>842</v>
+        <v>857</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>843</v>
+        <v>763</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11973,46 +12045,46 @@
         <v>8</v>
       </c>
       <c r="D26" s="7">
-        <v>4329</v>
+        <v>3932</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>845</v>
+        <v>859</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>410</v>
+        <v>861</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
       </c>
       <c r="I26" s="7">
-        <v>9342</v>
+        <v>8350</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
       </c>
       <c r="N26" s="7">
-        <v>13671</v>
+        <v>12283</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -12033,37 +12105,37 @@
         <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
       </c>
       <c r="I27" s="7">
-        <v>841</v>
+        <v>755</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>232</v>
+        <v>868</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>853</v>
+        <v>869</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
       </c>
       <c r="N27" s="7">
-        <v>841</v>
+        <v>755</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>854</v>
+        <v>870</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>855</v>
+        <v>871</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -12075,7 +12147,7 @@
         <v>16</v>
       </c>
       <c r="D28" s="7">
-        <v>8866</v>
+        <v>7993</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>31</v>
@@ -12090,7 +12162,7 @@
         <v>43</v>
       </c>
       <c r="I28" s="7">
-        <v>18064</v>
+        <v>16136</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>31</v>
@@ -12105,7 +12177,7 @@
         <v>59</v>
       </c>
       <c r="N28" s="7">
-        <v>26930</v>
+        <v>24130</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>31</v>
@@ -12128,46 +12200,46 @@
         <v>10</v>
       </c>
       <c r="D29" s="7">
-        <v>4320</v>
+        <v>4130</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>857</v>
+        <v>873</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>858</v>
+        <v>874</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>4083</v>
+        <v>3760</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>859</v>
+        <v>707</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>860</v>
+        <v>875</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>861</v>
+        <v>876</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
       </c>
       <c r="N29" s="7">
-        <v>8402</v>
+        <v>7890</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>864</v>
+        <v>879</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -12179,46 +12251,46 @@
         <v>9</v>
       </c>
       <c r="D30" s="7">
-        <v>3707</v>
+        <v>3537</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>865</v>
+        <v>880</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>866</v>
+        <v>881</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>867</v>
+        <v>882</v>
       </c>
       <c r="H30" s="7">
         <v>36</v>
       </c>
       <c r="I30" s="7">
-        <v>12661</v>
+        <v>11898</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>101</v>
+        <v>883</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="M30" s="7">
         <v>45</v>
       </c>
       <c r="N30" s="7">
-        <v>16368</v>
+        <v>15435</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -12230,46 +12302,46 @@
         <v>34</v>
       </c>
       <c r="D31" s="7">
-        <v>16017</v>
+        <v>15225</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>874</v>
+        <v>890</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="H31" s="7">
         <v>38</v>
       </c>
       <c r="I31" s="7">
-        <v>14083</v>
+        <v>13188</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>876</v>
+        <v>892</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>877</v>
+        <v>893</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="M31" s="7">
         <v>72</v>
       </c>
       <c r="N31" s="7">
-        <v>30100</v>
+        <v>28414</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>879</v>
+        <v>895</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>880</v>
+        <v>896</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>881</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -12281,46 +12353,46 @@
         <v>3</v>
       </c>
       <c r="D32" s="7">
-        <v>1358</v>
+        <v>1297</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>721</v>
+        <v>897</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>882</v>
+        <v>501</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>883</v>
+        <v>308</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
       </c>
       <c r="I32" s="7">
-        <v>2930</v>
+        <v>2721</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>884</v>
+        <v>898</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>885</v>
+        <v>899</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
       </c>
       <c r="N32" s="7">
-        <v>4288</v>
+        <v>4017</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>887</v>
+        <v>759</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>889</v>
+        <v>902</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -12332,7 +12404,7 @@
         <v>56</v>
       </c>
       <c r="D33" s="7">
-        <v>25402</v>
+        <v>24189</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>31</v>
@@ -12347,7 +12419,7 @@
         <v>91</v>
       </c>
       <c r="I33" s="7">
-        <v>33757</v>
+        <v>31567</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>31</v>
@@ -12362,7 +12434,7 @@
         <v>147</v>
       </c>
       <c r="N33" s="7">
-        <v>59159</v>
+        <v>55756</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>31</v>
@@ -12385,46 +12457,46 @@
         <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>1587</v>
+        <v>1527</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>890</v>
+        <v>552</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="H34" s="7">
         <v>12</v>
       </c>
       <c r="I34" s="7">
-        <v>10237</v>
+        <v>8455</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>863</v>
+        <v>905</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>893</v>
+        <v>906</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
       </c>
       <c r="N34" s="7">
-        <v>11824</v>
+        <v>9982</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>894</v>
+        <v>907</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>895</v>
+        <v>908</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>896</v>
+        <v>909</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12436,46 +12508,46 @@
         <v>5</v>
       </c>
       <c r="D35" s="7">
-        <v>3910</v>
+        <v>3674</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>897</v>
+        <v>910</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>898</v>
+        <v>485</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="H35" s="7">
         <v>23</v>
       </c>
       <c r="I35" s="7">
-        <v>15061</v>
+        <v>13550</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
       <c r="M35" s="7">
         <v>28</v>
       </c>
       <c r="N35" s="7">
-        <v>18971</v>
+        <v>17225</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>523</v>
+        <v>830</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>690</v>
+        <v>915</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>903</v>
+        <v>916</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12487,46 +12559,46 @@
         <v>20</v>
       </c>
       <c r="D36" s="7">
-        <v>17082</v>
+        <v>15785</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>905</v>
+        <v>918</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>906</v>
+        <v>919</v>
       </c>
       <c r="H36" s="7">
         <v>52</v>
       </c>
       <c r="I36" s="7">
-        <v>30562</v>
+        <v>27817</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>537</v>
+        <v>920</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
       <c r="M36" s="7">
         <v>72</v>
       </c>
       <c r="N36" s="7">
-        <v>47643</v>
+        <v>43602</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12538,46 +12610,46 @@
         <v>3</v>
       </c>
       <c r="D37" s="7">
-        <v>2355</v>
+        <v>2258</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>157</v>
+        <v>926</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>912</v>
+        <v>927</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>913</v>
+        <v>928</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
       </c>
       <c r="I37" s="7">
-        <v>3921</v>
+        <v>3615</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>914</v>
+        <v>929</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>915</v>
+        <v>930</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>916</v>
+        <v>931</v>
       </c>
       <c r="M37" s="7">
         <v>10</v>
       </c>
       <c r="N37" s="7">
-        <v>6276</v>
+        <v>5873</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>917</v>
+        <v>881</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>918</v>
+        <v>932</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>919</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12589,7 +12661,7 @@
         <v>30</v>
       </c>
       <c r="D38" s="7">
-        <v>24933</v>
+        <v>23244</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>31</v>
@@ -12604,7 +12676,7 @@
         <v>94</v>
       </c>
       <c r="I38" s="7">
-        <v>59781</v>
+        <v>53437</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>31</v>
@@ -12619,7 +12691,7 @@
         <v>124</v>
       </c>
       <c r="N38" s="7">
-        <v>84714</v>
+        <v>76681</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>31</v>
@@ -12642,46 +12714,46 @@
         <v>4</v>
       </c>
       <c r="D39" s="7">
-        <v>2834</v>
+        <v>2461</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>920</v>
+        <v>933</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>921</v>
+        <v>529</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
       <c r="H39" s="7">
         <v>20</v>
       </c>
       <c r="I39" s="7">
-        <v>14924</v>
+        <v>11483</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="M39" s="7">
         <v>24</v>
       </c>
       <c r="N39" s="7">
-        <v>17758</v>
+        <v>13945</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -12693,46 +12765,46 @@
         <v>3</v>
       </c>
       <c r="D40" s="7">
-        <v>2107</v>
+        <v>1798</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="H40" s="7">
         <v>18</v>
       </c>
       <c r="I40" s="7">
-        <v>12836</v>
+        <v>10300</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>223</v>
+        <v>944</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>932</v>
+        <v>945</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="M40" s="7">
         <v>21</v>
       </c>
       <c r="N40" s="7">
-        <v>14943</v>
+        <v>12099</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>934</v>
+        <v>947</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>935</v>
+        <v>948</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12744,46 +12816,46 @@
         <v>19</v>
       </c>
       <c r="D41" s="7">
-        <v>13379</v>
+        <v>11475</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>937</v>
+        <v>950</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>938</v>
+        <v>951</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>939</v>
+        <v>952</v>
       </c>
       <c r="H41" s="7">
         <v>63</v>
       </c>
       <c r="I41" s="7">
-        <v>40947</v>
+        <v>34272</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>940</v>
+        <v>953</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>941</v>
+        <v>954</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>942</v>
+        <v>955</v>
       </c>
       <c r="M41" s="7">
         <v>82</v>
       </c>
       <c r="N41" s="7">
-        <v>54326</v>
+        <v>45747</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>943</v>
+        <v>956</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>944</v>
+        <v>957</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>945</v>
+        <v>958</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12795,46 +12867,46 @@
         <v>2</v>
       </c>
       <c r="D42" s="7">
-        <v>1455</v>
+        <v>1266</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>946</v>
+        <v>959</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>947</v>
+        <v>960</v>
       </c>
       <c r="H42" s="7">
         <v>5</v>
       </c>
       <c r="I42" s="7">
-        <v>3194</v>
+        <v>2700</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>535</v>
+        <v>961</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>948</v>
+        <v>962</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>949</v>
+        <v>269</v>
       </c>
       <c r="M42" s="7">
         <v>7</v>
       </c>
       <c r="N42" s="7">
-        <v>4649</v>
+        <v>3967</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>950</v>
+        <v>963</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>951</v>
+        <v>964</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12846,7 +12918,7 @@
         <v>28</v>
       </c>
       <c r="D43" s="7">
-        <v>19775</v>
+        <v>17001</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>31</v>
@@ -12861,7 +12933,7 @@
         <v>106</v>
       </c>
       <c r="I43" s="7">
-        <v>71901</v>
+        <v>58756</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>31</v>
@@ -12876,7 +12948,7 @@
         <v>134</v>
       </c>
       <c r="N43" s="7">
-        <v>91676</v>
+        <v>75757</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>31</v>
@@ -12899,46 +12971,46 @@
         <v>34</v>
       </c>
       <c r="D44" s="7">
-        <v>21719</v>
+        <v>20408</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>953</v>
+        <v>966</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>591</v>
+        <v>967</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>954</v>
+        <v>968</v>
       </c>
       <c r="H44" s="7">
         <v>90</v>
       </c>
       <c r="I44" s="7">
-        <v>54087</v>
+        <v>46719</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>955</v>
+        <v>556</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>956</v>
+        <v>969</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>957</v>
+        <v>970</v>
       </c>
       <c r="M44" s="7">
         <v>124</v>
       </c>
       <c r="N44" s="7">
-        <v>75805</v>
+        <v>67127</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>958</v>
+        <v>971</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>959</v>
+        <v>972</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>960</v>
+        <v>535</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12950,46 +13022,46 @@
         <v>51</v>
       </c>
       <c r="D45" s="7">
-        <v>32783</v>
+        <v>30906</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="H45" s="7">
         <v>175</v>
       </c>
       <c r="I45" s="7">
-        <v>90211</v>
+        <v>82087</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
       <c r="M45" s="7">
         <v>226</v>
       </c>
       <c r="N45" s="7">
-        <v>122995</v>
+        <v>112993</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -13001,46 +13073,46 @@
         <v>159</v>
       </c>
       <c r="D46" s="7">
-        <v>102331</v>
+        <v>97360</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
       <c r="H46" s="7">
         <v>375</v>
       </c>
       <c r="I46" s="7">
-        <v>203685</v>
+        <v>184717</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="M46" s="7">
         <v>534</v>
       </c>
       <c r="N46" s="7">
-        <v>306016</v>
+        <v>282077</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -13052,46 +13124,46 @@
         <v>14</v>
       </c>
       <c r="D47" s="7">
-        <v>8836</v>
+        <v>8399</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>980</v>
+        <v>930</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>981</v>
+        <v>992</v>
       </c>
       <c r="H47" s="7">
         <v>30</v>
       </c>
       <c r="I47" s="7">
-        <v>16326</v>
+        <v>14724</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>982</v>
+        <v>993</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>485</v>
+        <v>994</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>890</v>
+        <v>995</v>
       </c>
       <c r="M47" s="7">
         <v>44</v>
       </c>
       <c r="N47" s="7">
-        <v>25162</v>
+        <v>23124</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>983</v>
+        <v>996</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>984</v>
+        <v>997</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>775</v>
+        <v>998</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -13103,7 +13175,7 @@
         <v>258</v>
       </c>
       <c r="D48" s="7">
-        <v>165669</v>
+        <v>157073</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>31</v>
@@ -13118,7 +13190,7 @@
         <v>670</v>
       </c>
       <c r="I48" s="7">
-        <v>364309</v>
+        <v>328248</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>31</v>
@@ -13133,7 +13205,7 @@
         <v>928</v>
       </c>
       <c r="N48" s="7">
-        <v>529978</v>
+        <v>485321</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>31</v>
